--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -457,9 +457,185 @@
         <v>bodypain, muscles pain</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C6" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C7" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C8" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C9" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C10" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C11" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C12" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C13" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C14" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C15" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C16" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C17" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C18" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C19" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C20" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C21" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -633,9 +633,53 @@
         <v>bodypain, muscles pain</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C22" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C23" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C24" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Female</v>
+      </c>
+      <c r="C25" t="str">
+        <v>bodypain, muscles pain</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C25"/>
   </ignoredErrors>
 </worksheet>
 </file>